--- a/src/test/resources/example.xlsx
+++ b/src/test/resources/example.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>*User</t>
   </si>
@@ -59,6 +59,18 @@
 </t>
   </si>
   <si>
+    <t>*SuperUser$User-Admin</t>
+  </si>
+  <si>
+    <t>$User(Admin2).age</t>
+  </si>
+  <si>
+    <t>superLogin</t>
+  </si>
+  <si>
+    <t>mySuperLogin</t>
+  </si>
+  <si>
     <t>*Ignored</t>
   </si>
   <si>
@@ -66,6 +78,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>*SuperUser$-</t>
   </si>
 </sst>
 </file>
@@ -125,8 +140,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.57"/>
+    <col customWidth="1" min="1" max="1" width="23.57"/>
     <col customWidth="1" min="2" max="2" width="37.14"/>
+    <col customWidth="1" min="3" max="3" width="25.0"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -228,48 +244,74 @@
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
     </row>
     <row r="15">
       <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1" t="s">
+    </row>
+    <row r="16">
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
     <row r="19">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="21">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="22">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24">
       <c r="B24" s="1"/>
